--- a/dados_reais.xlsx
+++ b/dados_reais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Prob_Permanencia</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Attrition</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Created at</t>
         </is>
@@ -519,7 +524,8 @@
           <t>34.58</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wed, 18 Jun 2025 16:40:10 GMT</t>
         </is>
@@ -527,241 +533,247 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Estudante</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 15:01:31 GMT</t>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 15:02:49 GMT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matheus</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Estudante</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 14:43:22 GMT</t>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 15:03:04 GMT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maristela Rosa de Souza</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cabeleleira</t>
+          <t>Corporativo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>29.76</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 09:59:07 GMT</t>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 13:59:57 GMT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Paula de Souza</t>
+          <t>Alex Danvers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Policial</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 10:00:51 GMT</t>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 10:12:41 GMT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alex Danvers</t>
+          <t>Matheus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Policial</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>57.12</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 10:12:41 GMT</t>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 14:43:22 GMT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Maristela Rosa de Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Cabeleleira</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17.44</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 15:02:49 GMT</t>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 09:59:07 GMT</t>
         </is>
       </c>
     </row>
@@ -799,7 +811,8 @@
           <t>43.97</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Fri, 20 Jun 2025 09:54:56 GMT</t>
         </is>
@@ -839,7 +852,8 @@
           <t>6.55</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Fri, 20 Jun 2025 13:38:21 GMT</t>
         </is>
@@ -879,7 +893,8 @@
           <t>1.94</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Fri, 20 Jun 2025 13:44:50 GMT</t>
         </is>
@@ -919,7 +934,8 @@
           <t>96.02</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Fri, 20 Jun 2025 13:44:26 GMT</t>
         </is>
@@ -959,7 +975,8 @@
           <t>36.63</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Fri, 20 Jun 2025 14:00:33 GMT</t>
         </is>
@@ -967,16 +984,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Corporativo</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -986,47 +1003,48 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>61.07</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 13:59:57 GMT</t>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 15:04:31 GMT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Fabiana</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Estudante</t>
+          <t>Contabil</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1036,67 +1054,69 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>61.07</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 15:03:04 GMT</t>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 15:07:24 GMT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 15:04:31 GMT</t>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 15:16:06 GMT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fabiana</t>
+          <t>Joana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Contabil</t>
+          <t>Administrativo</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1106,222 +1126,269 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>34.48</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 15:07:24 GMT</t>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 13:39:27 GMT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Paulo Silvano de Souza</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Pintura de Autos</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>72.20</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 15:16:06 GMT</t>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 10:00:20 GMT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Joana</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Administrativo</t>
+          <t>Contabil</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 13:39:27 GMT</t>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Fri, 20 Jun 2025 13:38:45 GMT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paulo Silvano de Souza</t>
+          <t>Vitória Stéfane de Souza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pintura de Autos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17.38</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 10:00:20 GMT</t>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 09:59:54 GMT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Ana Paula de Souza</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contabil</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>86.21</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Fri, 20 Jun 2025 13:38:45 GMT</t>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 10:00:51 GMT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vitória Stéfane de Souza</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Estudante</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Wed, 18 Jun 2025 15:01:31 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Joao Alves</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>TI</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>89.73</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Wed, 18 Jun 2025 09:59:54 GMT</t>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Mon, 23 Jun 2025 09:28:40 GMT</t>
         </is>
       </c>
     </row>
